--- a/documentos/Backlog.xlsx
+++ b/documentos/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="263">
   <si>
     <t>O sistema deverá ter um cadastro de Clientes com as seguintes opções: Inclusão, Alteração, Exclusão e Importação.</t>
   </si>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,11 +1203,11 @@
       </c>
       <c r="B1" s="2">
         <f>SUBTOTAL(3,B3:B26)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6">
         <f>B1/(A1)</f>
-        <v>0.625</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,26 +1257,41 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1340,7 +1355,7 @@
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1364,6 +1379,9 @@
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1376,6 +1394,9 @@
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2708,7 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/documentos/Backlog.xlsx
+++ b/documentos/Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="263">
   <si>
     <t>O sistema deverá ter um cadastro de Clientes com as seguintes opções: Inclusão, Alteração, Exclusão e Importação.</t>
   </si>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,11 +1203,11 @@
       </c>
       <c r="B1" s="2">
         <f>SUBTOTAL(3,B3:B26)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6">
         <f>B1/(A1)</f>
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,6 +1301,9 @@
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">

--- a/documentos/Backlog.xlsx
+++ b/documentos/Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="263">
   <si>
     <t>O sistema deverá ter um cadastro de Clientes com as seguintes opções: Inclusão, Alteração, Exclusão e Importação.</t>
   </si>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,11 +1203,11 @@
       </c>
       <c r="B1" s="2">
         <f>SUBTOTAL(3,B3:B26)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6">
         <f>B1/(A1)</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,6 +1296,9 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
